--- a/BD/Archivo plano devocional.xlsx
+++ b/BD/Archivo plano devocional.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Archivo plano devocional" sheetId="1" r:id="rId1"/>
     <sheet name="Devocional May 2015" sheetId="2" r:id="rId2"/>
+    <sheet name="Devocional Jun 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t>idlibro</t>
   </si>
@@ -488,6 +489,27 @@
   </si>
   <si>
     <t>1 crónicas</t>
+  </si>
+  <si>
+    <t>jeremías</t>
+  </si>
+  <si>
+    <t>isaías</t>
+  </si>
+  <si>
+    <t>marcos</t>
+  </si>
+  <si>
+    <t>éxodo</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>2 timoteo</t>
+  </si>
+  <si>
+    <t>hebreos</t>
   </si>
 </sst>
 </file>
@@ -2336,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,4 +3057,688 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="3">
+        <f>IF(B2="","",VLOOKUP(B2,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="D2" s="3">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="5">
+        <f>IF(B3="","",VLOOKUP(B3,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>138</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5">
+        <f>IF(B4="","",VLOOKUP(B4,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>23</v>
+      </c>
+      <c r="D4" s="5">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="5">
+        <f>IF(B5="","",VLOOKUP(B5,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>42</v>
+      </c>
+      <c r="D5" s="5">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="5">
+        <f>IF(B6="","",VLOOKUP(B6,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="5">
+        <f>IF(B7="","",VLOOKUP(B7,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>41</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="5">
+        <f>IF(B8="","",VLOOKUP(B8,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="5">
+        <f>IF(B9="","",VLOOKUP(B9,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>39</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="5">
+        <f>IF(B10="","",VLOOKUP(B10,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="5">
+        <f>IF(B11="","",VLOOKUP(B11,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="5">
+        <f>IF(B12="","",VLOOKUP(B12,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D12" s="5">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="5">
+        <f>IF(B13="","",VLOOKUP(B13,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>50</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="5">
+        <f>IF(B14="","",VLOOKUP(B14,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="5">
+        <f>IF(B15="","",VLOOKUP(B15,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="5">
+        <f>IF(B16="","",VLOOKUP(B16,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="5">
+        <f>IF(B17="","",VLOOKUP(B17,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>43</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="5">
+        <f>IF(B18="","",VLOOKUP(B18,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>23</v>
+      </c>
+      <c r="D18" s="5">
+        <v>26</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="5">
+        <f>IF(B19="","",VLOOKUP(B19,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>55</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="5">
+        <f>IF(B20="","",VLOOKUP(B20,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="5">
+        <f>IF(B21="","",VLOOKUP(B21,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D21" s="5">
+        <v>91</v>
+      </c>
+      <c r="E21" s="5">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="5">
+        <f>IF(B22="","",VLOOKUP(B22,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="5">
+        <f>IF(B23="","",VLOOKUP(B23,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>58</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>14</v>
+      </c>
+      <c r="F23" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="5">
+        <f>IF(B24="","",VLOOKUP(B24,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>43</v>
+      </c>
+      <c r="D24" s="5">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5">
+        <v>27</v>
+      </c>
+      <c r="F24" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="5">
+        <f>IF(B25="","",VLOOKUP(B25,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>21</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="5">
+        <f>IF(B26="","",VLOOKUP(B26,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="5">
+        <f>IF(B27="","",VLOOKUP(B27,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>43</v>
+      </c>
+      <c r="D27" s="5">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="5">
+        <f>IF(B28="","",VLOOKUP(B28,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D28" s="5">
+        <v>107</v>
+      </c>
+      <c r="E28" s="5">
+        <v>20</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="5">
+        <f>IF(B29="","",VLOOKUP(B29,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>40</v>
+      </c>
+      <c r="D29" s="5">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5">
+        <v>21</v>
+      </c>
+      <c r="F29" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="5">
+        <f>IF(B30="","",VLOOKUP(B30,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>58</v>
+      </c>
+      <c r="D30" s="5">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="5">
+        <f>IF(B31="","",VLOOKUP(B31,'Archivo plano devocional'!$B$2:$C$67,2,FALSE))</f>
+        <v>19</v>
+      </c>
+      <c r="D31" s="5">
+        <v>23</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Archivo plano devocional'!$B$2:$B$67</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/BD/Archivo plano devocional.xlsx
+++ b/BD/Archivo plano devocional.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Archivo plano devocional" sheetId="1" r:id="rId1"/>
     <sheet name="Devocional May 2015" sheetId="2" r:id="rId2"/>
     <sheet name="Devocional Jun 2015" sheetId="3" r:id="rId3"/>
+    <sheet name="devocional para plano" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -842,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1017,6 +1018,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1062,7 +1074,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,6 +1092,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2359,7 +2374,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A2" sqref="A2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3741,4 +3756,1606 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="3">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E2" s="5">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="5">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="5">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5">
+        <v>112</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E5" s="5">
+        <v>64</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E7" s="5">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="5">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E10" s="5">
+        <v>61</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E13" s="5">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6</v>
+      </c>
+      <c r="H13" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E14" s="5">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="5">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>26</v>
+      </c>
+      <c r="H16" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E17" s="5">
+        <v>40</v>
+      </c>
+      <c r="F17" s="5">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E18" s="5">
+        <v>47</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E20" s="5">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E21" s="5">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5">
+        <v>22</v>
+      </c>
+      <c r="H21" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E22" s="5">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5">
+        <v>31</v>
+      </c>
+      <c r="H22" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E24" s="5">
+        <v>40</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5">
+        <v>19</v>
+      </c>
+      <c r="H24" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E25" s="5">
+        <v>46</v>
+      </c>
+      <c r="F25" s="5">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E26" s="5">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5">
+        <v>24</v>
+      </c>
+      <c r="H26" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5">
+        <v>11</v>
+      </c>
+      <c r="H27" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E28" s="5">
+        <v>46</v>
+      </c>
+      <c r="F28" s="5">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5">
+        <v>58</v>
+      </c>
+      <c r="H28" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E29" s="5">
+        <v>47</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E30" s="5">
+        <v>45</v>
+      </c>
+      <c r="F30" s="5">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5">
+        <v>32</v>
+      </c>
+      <c r="H30" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E31" s="7">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7">
+        <v>29</v>
+      </c>
+      <c r="G31" s="7">
+        <v>14</v>
+      </c>
+      <c r="H31" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>33</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>138</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" s="9">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E35">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>27</v>
+      </c>
+      <c r="H35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>37</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E37">
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>39</v>
+      </c>
+      <c r="H38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9">
+        <v>6</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" s="9">
+        <v>6</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>27</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" s="9">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>62</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" s="9">
+        <v>6</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44" s="9">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>55</v>
+      </c>
+      <c r="G44">
+        <v>22</v>
+      </c>
+      <c r="H44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45" s="9">
+        <v>6</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E45">
+        <v>24</v>
+      </c>
+      <c r="F45">
+        <v>29</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" s="9">
+        <v>6</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>31</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47" s="9">
+        <v>6</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E47">
+        <v>43</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>17</v>
+      </c>
+      <c r="C48" s="9">
+        <v>6</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49" s="9">
+        <v>6</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E49">
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50" s="9">
+        <v>6</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>37</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51" s="9">
+        <v>6</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E51">
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <v>91</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52" s="9">
+        <v>6</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53" s="9">
+        <v>6</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="C54" s="9">
+        <v>6</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E54">
+        <v>43</v>
+      </c>
+      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>27</v>
+      </c>
+      <c r="H54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55" s="9">
+        <v>6</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E55">
+        <v>21</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
+      </c>
+      <c r="C56" s="9">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>23</v>
+      </c>
+      <c r="G56">
+        <v>25</v>
+      </c>
+      <c r="H56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>26</v>
+      </c>
+      <c r="C57" s="9">
+        <v>6</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E57">
+        <v>43</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>27</v>
+      </c>
+      <c r="C58" s="9">
+        <v>6</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E58">
+        <v>19</v>
+      </c>
+      <c r="F58">
+        <v>107</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>28</v>
+      </c>
+      <c r="C59" s="9">
+        <v>6</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>25</v>
+      </c>
+      <c r="G59">
+        <v>21</v>
+      </c>
+      <c r="H59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>29</v>
+      </c>
+      <c r="C60" s="9">
+        <v>6</v>
+      </c>
+      <c r="D60" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61" s="9">
+        <v>6</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E61">
+        <v>19</v>
+      </c>
+      <c r="F61">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>